--- a/Excel2Json/Test/medal_nature.xlsx
+++ b/Excel2Json/Test/medal_nature.xlsx
@@ -72,13 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>propMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +137,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propmap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +598,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -622,22 +623,22 @@
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -673,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -693,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -705,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -723,25 +724,25 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -758,25 +759,25 @@
     </row>
     <row r="5" spans="1:19" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
